--- a/liensMagasinFr.xlsx
+++ b/liensMagasinFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8967FB9-E3E9-4C67-9127-C6AB7F1E9F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB164C33-CA89-42CA-B0A8-7ACFF100BDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54495" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="52">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -491,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,12 @@
       <c r="C11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -661,7 +666,12 @@
       <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -702,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -713,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -724,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -735,7 +745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -746,7 +756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -756,9 +766,14 @@
       <c r="C21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -772,7 +787,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -782,9 +797,14 @@
       <c r="C23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -798,7 +818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -809,7 +829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -823,7 +843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -834,7 +854,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -845,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -859,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>35</v>
       </c>
@@ -873,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -887,7 +907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
@@ -898,7 +918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
@@ -912,7 +932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -923,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -937,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -951,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
@@ -965,7 +985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>43</v>
       </c>
@@ -976,7 +996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -990,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -1001,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>44</v>
       </c>
@@ -1012,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>44</v>
       </c>
@@ -1023,7 +1043,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -1034,7 +1054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1045,7 +1065,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -1055,9 +1075,14 @@
       <c r="C45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -1067,9 +1092,14 @@
       <c r="C46" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
@@ -1083,7 +1113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
@@ -1217,6 +1247,12 @@
       </c>
       <c r="C58" s="4" t="s">
         <v>25</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/liensMagasinFr.xlsx
+++ b/liensMagasinFr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB164C33-CA89-42CA-B0A8-7ACFF100BDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5B056-8A06-4B3D-B415-5938C37FAE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="52">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -491,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -613,6 +613,9 @@
       <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -744,6 +747,9 @@
       <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -1041,6 +1047,9 @@
       </c>
       <c r="D42" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/liensMagasinFr.xlsx
+++ b/liensMagasinFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF5B056-8A06-4B3D-B415-5938C37FAE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDE5312-BF27-4531-B89C-FCB4A0C5DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="45">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -50,12 +50,6 @@
     <t>https://vipiisxen02.kiabi.fr/Citrix/KiabiDesktopsWeb/</t>
   </si>
   <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
     <t>Magasin POD ClientFR</t>
   </si>
   <si>
@@ -128,15 +122,6 @@
     <t xml:space="preserve"> -Technique-</t>
   </si>
   <si>
-    <t xml:space="preserve"> -Ressources Humaines</t>
-  </si>
-  <si>
-    <t>SRMARTRH</t>
-  </si>
-  <si>
-    <t>https://myapps.kiabi.fr/idp/startSSO.ping?PartnerSpId=smarta090sso&amp;LoginForm=true</t>
-  </si>
-  <si>
     <t>Magasin SCO ClientFR</t>
   </si>
   <si>
@@ -150,12 +135,6 @@
   </si>
   <si>
     <t>https://kiabi.octoplus.frequentiel.com/OctoplusTracker</t>
-  </si>
-  <si>
-    <t>Yoobic</t>
-  </si>
-  <si>
-    <t>https://app-web.yoobic.com</t>
   </si>
   <si>
     <t xml:space="preserve"> -Citrix-</t>
@@ -259,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +247,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -492,7 +474,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -505,21 +487,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
@@ -531,69 +513,69 @@
     </row>
     <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
@@ -605,130 +587,116 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>0</v>
@@ -739,130 +707,110 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>0</v>
@@ -873,10 +821,10 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>2</v>
@@ -887,60 +835,41 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>0</v>
@@ -951,10 +880,10 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>2</v>
@@ -965,71 +894,57 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>0</v>
@@ -1040,127 +955,107 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
         <v>44</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
         <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A47" s="3"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>0</v>
@@ -1171,21 +1066,21 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>2</v>
@@ -1196,72 +1091,58 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1155,7 @@
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" xr:uid="{167ECE54-CAAB-4685-AC8E-2AF94C7601A4}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{BE6AC910-659B-4997-A11D-270577993D48}"/>
-    <hyperlink ref="D15" r:id="rId3" xr:uid="{0DD60039-664A-4ED2-85D2-3428951918B5}"/>
+    <hyperlink ref="D49" r:id="rId3" xr:uid="{8228F164-1DD5-4DF4-8F19-E2301876496F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/liensMagasinFr.xlsx
+++ b/liensMagasinFr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1508689B-94E4-4834-B42D-18073783FCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBFC8A6-A359-4ED6-B076-2F11B1BD2F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52305" yWindow="75" windowWidth="28200" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Rendez-Vous</t>
   </si>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -226,12 +226,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -264,7 +258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -281,11 +275,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -510,8 +501,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -524,7 +515,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -683,16 +674,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
@@ -700,13 +691,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
@@ -714,16 +705,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F13" t="s">
@@ -731,53 +722,53 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F17" t="s">
@@ -785,16 +776,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F18" t="s">
@@ -802,24 +793,24 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F20" t="s">
@@ -827,7 +818,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -844,17 +835,17 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="2"/>
       <c r="C24" s="4"/>
       <c r="D24" s="3"/>
@@ -899,13 +890,13 @@
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
@@ -918,8 +909,11 @@
       <c r="D34" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>28</v>
       </c>
@@ -933,70 +927,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="C40" s="4"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>

--- a/liensMagasinFr.xlsx
+++ b/liensMagasinFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBFC8A6-A359-4ED6-B076-2F11B1BD2F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D05F8-A777-49FA-9FC4-CF4EFC6CB535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52305" yWindow="75" windowWidth="28200" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35595" yWindow="6240" windowWidth="20985" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -501,8 +501,8 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -909,9 +909,6 @@
       <c r="D34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -925,6 +922,9 @@
       </c>
       <c r="D35" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
